--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efna5-Epha5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efna5-Epha5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Efna5</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,93 +519,93 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.386502</v>
+        <v>0.1261995</v>
       </c>
       <c r="H2">
-        <v>0.773004</v>
+        <v>0.252399</v>
       </c>
       <c r="I2">
-        <v>0.2023774294220003</v>
+        <v>0.07923641825693001</v>
       </c>
       <c r="J2">
-        <v>0.1704859662986497</v>
+        <v>0.06507622895681928</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.331827</v>
+        <v>0.006466</v>
       </c>
       <c r="N2">
-        <v>0.663654</v>
+        <v>0.012932</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.008493427970384656</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.008493427970384656</v>
       </c>
       <c r="Q2">
-        <v>0.128251799154</v>
+        <v>0.000816005967</v>
       </c>
       <c r="R2">
-        <v>0.513007196616</v>
+        <v>0.003264023868</v>
       </c>
       <c r="S2">
-        <v>0.2023774294220003</v>
+        <v>0.0006729888110965067</v>
       </c>
       <c r="T2">
-        <v>0.1704859662986497</v>
+        <v>0.0005527202632290047</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.6931216666666665</v>
+        <v>0.1261995</v>
       </c>
       <c r="H3">
-        <v>2.079365</v>
+        <v>0.252399</v>
       </c>
       <c r="I3">
-        <v>0.3629274393837355</v>
+        <v>0.07923641825693001</v>
       </c>
       <c r="J3">
-        <v>0.4586037734767113</v>
+        <v>0.06507622895681928</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -617,122 +614,122 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.331827</v>
+        <v>0.7548284999999999</v>
       </c>
       <c r="N3">
-        <v>0.663654</v>
+        <v>1.509657</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.9915065720296153</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9915065720296153</v>
       </c>
       <c r="Q3">
-        <v>0.2299964832849999</v>
+        <v>0.09525897928574999</v>
       </c>
       <c r="R3">
-        <v>1.37997889971</v>
+        <v>0.3810359171429999</v>
       </c>
       <c r="S3">
-        <v>0.3629274393837355</v>
+        <v>0.0785634294458335</v>
       </c>
       <c r="T3">
-        <v>0.4586037734767113</v>
+        <v>0.06452350869359028</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8088005</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H4">
-        <v>1.617601</v>
+        <v>2.079365</v>
       </c>
       <c r="I4">
-        <v>0.4234983676804482</v>
+        <v>0.4351877644756155</v>
       </c>
       <c r="J4">
-        <v>0.3567617626437407</v>
+        <v>0.5361242826825642</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.331827</v>
+        <v>0.006466</v>
       </c>
       <c r="N4">
-        <v>0.663654</v>
+        <v>0.012932</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.008493427970384656</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.008493427970384656</v>
       </c>
       <c r="Q4">
-        <v>0.2683818435135</v>
+        <v>0.004481724696666667</v>
       </c>
       <c r="R4">
-        <v>1.073527374054</v>
+        <v>0.02689034818</v>
       </c>
       <c r="S4">
-        <v>0.4234983676804482</v>
+        <v>0.003696235931166362</v>
       </c>
       <c r="T4">
-        <v>0.3567617626437407</v>
+        <v>0.004553532978138501</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.02138366666666667</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H5">
-        <v>0.064151</v>
+        <v>2.079365</v>
       </c>
       <c r="I5">
-        <v>0.01119676351381601</v>
+        <v>0.4351877644756155</v>
       </c>
       <c r="J5">
-        <v>0.01414849758089826</v>
+        <v>0.5361242826825642</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +738,152 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.331827</v>
+        <v>0.7548284999999999</v>
       </c>
       <c r="N5">
-        <v>0.663654</v>
+        <v>1.509657</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.9915065720296153</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.9915065720296153</v>
       </c>
       <c r="Q5">
-        <v>0.007095677958999999</v>
+        <v>0.5231879879675</v>
       </c>
       <c r="R5">
-        <v>0.04257406775399999</v>
+        <v>3.139127927805</v>
       </c>
       <c r="S5">
-        <v>0.01119676351381601</v>
+        <v>0.4314915285444491</v>
       </c>
       <c r="T5">
-        <v>0.01414849758089826</v>
+        <v>0.5315707497044256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.7733745</v>
+      </c>
+      <c r="H6">
+        <v>1.546749</v>
+      </c>
+      <c r="I6">
+        <v>0.4855758172674545</v>
+      </c>
+      <c r="J6">
+        <v>0.3987994883606166</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.5</v>
+      </c>
+      <c r="M6">
+        <v>0.006466</v>
+      </c>
+      <c r="N6">
+        <v>0.012932</v>
+      </c>
+      <c r="O6">
+        <v>0.008493427970384656</v>
+      </c>
+      <c r="P6">
+        <v>0.008493427970384656</v>
+      </c>
+      <c r="Q6">
+        <v>0.005000639517</v>
+      </c>
+      <c r="R6">
+        <v>0.020002558068</v>
+      </c>
+      <c r="S6">
+        <v>0.004124203228121786</v>
+      </c>
+      <c r="T6">
+        <v>0.003387174729017151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.7733745</v>
+      </c>
+      <c r="H7">
+        <v>1.546749</v>
+      </c>
+      <c r="I7">
+        <v>0.4855758172674545</v>
+      </c>
+      <c r="J7">
+        <v>0.3987994883606166</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.7548284999999999</v>
+      </c>
+      <c r="N7">
+        <v>1.509657</v>
+      </c>
+      <c r="O7">
+        <v>0.9915065720296153</v>
+      </c>
+      <c r="P7">
+        <v>0.9915065720296153</v>
+      </c>
+      <c r="Q7">
+        <v>0.5837651137732499</v>
+      </c>
+      <c r="R7">
+        <v>2.335060455093</v>
+      </c>
+      <c r="S7">
+        <v>0.4814516140393327</v>
+      </c>
+      <c r="T7">
+        <v>0.3954123136315994</v>
       </c>
     </row>
   </sheetData>
